--- a/Planning and Design/Scrum Artifacts.xlsx
+++ b/Planning and Design/Scrum Artifacts.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>Project Title</t>
   </si>
@@ -111,12 +111,21 @@
     <t>Assign the User Story to a single Team Member in Column E</t>
   </si>
   <si>
+    <t>Contribute to sprint backlog</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
     <t>Step 7</t>
   </si>
   <si>
     <t>Repeat steps 4-6 for each User Story that has been planned for this Sprint</t>
   </si>
   <si>
+    <t>Contribute to sprint product log</t>
+  </si>
+  <si>
     <t>Step 8</t>
   </si>
   <si>
@@ -154,6 +163,132 @@
   </si>
   <si>
     <t>Modification Date</t>
+  </si>
+  <si>
+    <t>login page</t>
+  </si>
+  <si>
+    <t>login form with password encryption</t>
+  </si>
+  <si>
+    <t>user is secure</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>registration page</t>
+  </si>
+  <si>
+    <t>registration form</t>
+  </si>
+  <si>
+    <t>new users</t>
+  </si>
+  <si>
+    <t>gameboard</t>
+  </si>
+  <si>
+    <t>programming for gameboard with multiple layouts</t>
+  </si>
+  <si>
+    <t>the user can have different options of play</t>
+  </si>
+  <si>
+    <t>user database table</t>
+  </si>
+  <si>
+    <t>store all user data</t>
+  </si>
+  <si>
+    <t>keep track of users</t>
+  </si>
+  <si>
+    <t>leaderboard function</t>
+  </si>
+  <si>
+    <t>algorithm to determine the leaders amongst those in the user DB</t>
+  </si>
+  <si>
+    <t>leaders can be ordered</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>login page for game</t>
+  </si>
+  <si>
+    <t>give users a more personal experience</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>allow new players to register</t>
+  </si>
+  <si>
+    <t>new players can register to play the game</t>
+  </si>
+  <si>
+    <t>game board</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>layout of gameboard</t>
+  </si>
+  <si>
+    <t>to have the gameboard strategicaly mapped out for gameplay</t>
+  </si>
+  <si>
+    <t>game status</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>allow game progress to be saved</t>
+  </si>
+  <si>
+    <t>users can pick up the game where they left of last</t>
+  </si>
+  <si>
+    <t>controls</t>
+  </si>
+  <si>
+    <t>functions for certain game play moves</t>
+  </si>
+  <si>
+    <t>certain spaces landed on have either benifits or consiquences</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>overall appearance of gameboard</t>
+  </si>
+  <si>
+    <t>to have a visually pleasing gamebaord</t>
+  </si>
+  <si>
+    <t>leaderboard</t>
+  </si>
+  <si>
+    <t>shows rank of users games</t>
+  </si>
+  <si>
+    <t>users can see where they sit amongst others users of the game</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
@@ -658,27 +793,51 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="E9" s="1">
+        <v>1.0</v>
+      </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="P10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -696,9 +855,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="18.14"/>
     <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="25.14"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
+    <col customWidth="1" min="5" max="5" width="54.29"/>
+    <col customWidth="1" min="6" max="6" width="35.57"/>
     <col customWidth="1" min="8" max="8" width="12.14"/>
     <col customWidth="1" min="9" max="9" width="16.43"/>
   </cols>
@@ -733,7 +893,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -742,31 +902,116 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -784,9 +1029,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="11.29"/>
     <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="25.71"/>
-    <col customWidth="1" min="6" max="6" width="16.86"/>
+    <col customWidth="1" min="5" max="5" width="32.43"/>
+    <col customWidth="1" min="6" max="6" width="53.43"/>
     <col customWidth="1" min="8" max="8" width="12.0"/>
     <col customWidth="1" min="9" max="9" width="15.43"/>
   </cols>
@@ -821,7 +1067,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -830,31 +1076,171 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
